--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.892575438902</v>
+        <v>100.8373843333333</v>
       </c>
       <c r="H2">
-        <v>81.892575438902</v>
+        <v>302.512153</v>
       </c>
       <c r="I2">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448407</v>
       </c>
       <c r="J2">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448408</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.8999908094465</v>
+        <v>78.37080400000001</v>
       </c>
       <c r="N2">
-        <v>40.8999908094465</v>
+        <v>235.112412</v>
       </c>
       <c r="O2">
-        <v>0.8692840207555227</v>
+        <v>0.9256182775132763</v>
       </c>
       <c r="P2">
-        <v>0.8692840207555227</v>
+        <v>0.9256182775132761</v>
       </c>
       <c r="Q2">
-        <v>3349.405582812996</v>
+        <v>7902.706883460338</v>
       </c>
       <c r="R2">
-        <v>3349.405582812996</v>
+        <v>71124.36195114304</v>
       </c>
       <c r="S2">
-        <v>0.5824258211415737</v>
+        <v>0.6064637611894569</v>
       </c>
       <c r="T2">
-        <v>0.5824258211415737</v>
+        <v>0.6064637611894569</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.892575438902</v>
+        <v>100.8373843333333</v>
       </c>
       <c r="H3">
-        <v>81.892575438902</v>
+        <v>302.512153</v>
       </c>
       <c r="I3">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448407</v>
       </c>
       <c r="J3">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448408</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.26964241043346</v>
+        <v>2.309992333333333</v>
       </c>
       <c r="N3">
-        <v>2.26964241043346</v>
+        <v>6.929977</v>
       </c>
       <c r="O3">
-        <v>0.04823873651734824</v>
+        <v>0.02728275091638557</v>
       </c>
       <c r="P3">
-        <v>0.04823873651734824</v>
+        <v>0.02728275091638557</v>
       </c>
       <c r="Q3">
-        <v>185.8668623157535</v>
+        <v>232.9335847233868</v>
       </c>
       <c r="R3">
-        <v>185.8668623157535</v>
+        <v>2096.402262510481</v>
       </c>
       <c r="S3">
-        <v>0.03232026018668775</v>
+        <v>0.01787561907355375</v>
       </c>
       <c r="T3">
-        <v>0.03232026018668775</v>
+        <v>0.01787561907355376</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.892575438902</v>
+        <v>100.8373843333333</v>
       </c>
       <c r="H4">
-        <v>81.892575438902</v>
+        <v>302.512153</v>
       </c>
       <c r="I4">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448407</v>
       </c>
       <c r="J4">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448408</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.88057112403401</v>
+        <v>3.987804</v>
       </c>
       <c r="N4">
-        <v>3.88057112403401</v>
+        <v>11.963412</v>
       </c>
       <c r="O4">
-        <v>0.08247724272712895</v>
+        <v>0.04709897157033827</v>
       </c>
       <c r="P4">
-        <v>0.08247724272712895</v>
+        <v>0.04709897157033827</v>
       </c>
       <c r="Q4">
-        <v>317.7899635209799</v>
+        <v>402.119724594004</v>
       </c>
       <c r="R4">
-        <v>317.7899635209799</v>
+        <v>3619.077521346036</v>
       </c>
       <c r="S4">
-        <v>0.05526027704856529</v>
+        <v>0.03085917828183007</v>
       </c>
       <c r="T4">
-        <v>0.05526027704856529</v>
+        <v>0.03085917828183007</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.049418834649</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H5">
-        <v>22.049418834649</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I5">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="J5">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.8999908094465</v>
+        <v>78.37080400000001</v>
       </c>
       <c r="N5">
-        <v>40.8999908094465</v>
+        <v>235.112412</v>
       </c>
       <c r="O5">
-        <v>0.8692840207555227</v>
+        <v>0.9256182775132763</v>
       </c>
       <c r="P5">
-        <v>0.8692840207555227</v>
+        <v>0.9256182775132761</v>
       </c>
       <c r="Q5">
-        <v>901.8210276907806</v>
+        <v>1873.686778660677</v>
       </c>
       <c r="R5">
-        <v>901.8210276907806</v>
+        <v>16863.1810079461</v>
       </c>
       <c r="S5">
-        <v>0.1568170350198124</v>
+        <v>0.1437891026245368</v>
       </c>
       <c r="T5">
-        <v>0.1568170350198124</v>
+        <v>0.1437891026245368</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.049418834649</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H6">
-        <v>22.049418834649</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I6">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="J6">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.26964241043346</v>
+        <v>2.309992333333333</v>
       </c>
       <c r="N6">
-        <v>2.26964241043346</v>
+        <v>6.929977</v>
       </c>
       <c r="O6">
-        <v>0.04823873651734824</v>
+        <v>0.02728275091638557</v>
       </c>
       <c r="P6">
-        <v>0.04823873651734824</v>
+        <v>0.02728275091638557</v>
       </c>
       <c r="Q6">
-        <v>50.04429611252969</v>
+        <v>55.22722586556844</v>
       </c>
       <c r="R6">
-        <v>50.04429611252969</v>
+        <v>497.045032790116</v>
       </c>
       <c r="S6">
-        <v>0.008702168052252724</v>
+        <v>0.004238207441122587</v>
       </c>
       <c r="T6">
-        <v>0.008702168052252724</v>
+        <v>0.004238207441122587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.049418834649</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H7">
-        <v>22.049418834649</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I7">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="J7">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.88057112403401</v>
+        <v>3.987804</v>
       </c>
       <c r="N7">
-        <v>3.88057112403401</v>
+        <v>11.963412</v>
       </c>
       <c r="O7">
-        <v>0.08247724272712895</v>
+        <v>0.04709897157033827</v>
       </c>
       <c r="P7">
-        <v>0.08247724272712895</v>
+        <v>0.04709897157033827</v>
       </c>
       <c r="Q7">
-        <v>85.56433803147054</v>
+        <v>95.34029573934399</v>
       </c>
       <c r="R7">
-        <v>85.56433803147054</v>
+        <v>858.0626616540959</v>
       </c>
       <c r="S7">
-        <v>0.01487872358430854</v>
+        <v>0.007316535359297045</v>
       </c>
       <c r="T7">
-        <v>0.01487872358430854</v>
+        <v>0.007316535359297044</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.2845703180103</v>
+        <v>29.15819666666667</v>
       </c>
       <c r="H8">
-        <v>18.2845703180103</v>
+        <v>87.47459000000001</v>
       </c>
       <c r="I8">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="J8">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.8999908094465</v>
+        <v>78.37080400000001</v>
       </c>
       <c r="N8">
-        <v>40.8999908094465</v>
+        <v>235.112412</v>
       </c>
       <c r="O8">
-        <v>0.8692840207555227</v>
+        <v>0.9256182775132763</v>
       </c>
       <c r="P8">
-        <v>0.8692840207555227</v>
+        <v>0.9256182775132761</v>
       </c>
       <c r="Q8">
-        <v>747.8387579612995</v>
+        <v>2285.151315956787</v>
       </c>
       <c r="R8">
-        <v>747.8387579612995</v>
+        <v>20566.36184361108</v>
       </c>
       <c r="S8">
-        <v>0.1300411645941365</v>
+        <v>0.1753654136992826</v>
       </c>
       <c r="T8">
-        <v>0.1300411645941365</v>
+        <v>0.1753654136992825</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.2845703180103</v>
+        <v>29.15819666666667</v>
       </c>
       <c r="H9">
-        <v>18.2845703180103</v>
+        <v>87.47459000000001</v>
       </c>
       <c r="I9">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="J9">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.26964241043346</v>
+        <v>2.309992333333333</v>
       </c>
       <c r="N9">
-        <v>2.26964241043346</v>
+        <v>6.929977</v>
       </c>
       <c r="O9">
-        <v>0.04823873651734824</v>
+        <v>0.02728275091638557</v>
       </c>
       <c r="P9">
-        <v>0.04823873651734824</v>
+        <v>0.02728275091638557</v>
       </c>
       <c r="Q9">
-        <v>41.49943625030899</v>
+        <v>67.35521075382556</v>
       </c>
       <c r="R9">
-        <v>41.49943625030899</v>
+        <v>606.19689678443</v>
       </c>
       <c r="S9">
-        <v>0.007216308278407763</v>
+        <v>0.005168924401709225</v>
       </c>
       <c r="T9">
-        <v>0.007216308278407763</v>
+        <v>0.005168924401709225</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.2845703180103</v>
+        <v>29.15819666666667</v>
       </c>
       <c r="H10">
-        <v>18.2845703180103</v>
+        <v>87.47459000000001</v>
       </c>
       <c r="I10">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="J10">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.88057112403401</v>
+        <v>3.987804</v>
       </c>
       <c r="N10">
-        <v>3.88057112403401</v>
+        <v>11.963412</v>
       </c>
       <c r="O10">
-        <v>0.08247724272712895</v>
+        <v>0.04709897157033827</v>
       </c>
       <c r="P10">
-        <v>0.08247724272712895</v>
+        <v>0.04709897157033827</v>
       </c>
       <c r="Q10">
-        <v>70.95457559144012</v>
+        <v>116.27717330012</v>
       </c>
       <c r="R10">
-        <v>70.95457559144012</v>
+        <v>1046.49455970108</v>
       </c>
       <c r="S10">
-        <v>0.01233824209425511</v>
+        <v>0.008923257929211162</v>
       </c>
       <c r="T10">
-        <v>0.01233824209425511</v>
+        <v>0.00892325792921116</v>
       </c>
     </row>
   </sheetData>
